--- a/labeldata/正样本2.xlsx
+++ b/labeldata/正样本2.xlsx
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,14 +94,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,8 +139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,16 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,37 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,23 +202,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +246,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,43 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,13 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,25 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,19 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,49 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,11 +440,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,17 +479,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,44 +531,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,13 +1040,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q368"/>
+  <dimension ref="A1:Q398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D378" workbookViewId="0">
+      <selection activeCell="N391" sqref="N391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="10.375"/>
+    <col min="7" max="7" width="9.375"/>
+    <col min="8" max="8" width="11.5"/>
+    <col min="9" max="12" width="12.625"/>
+    <col min="13" max="15" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -20549,6 +20556,1596 @@
         <v>-1</v>
       </c>
       <c r="Q368" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="1" spans="1:17">
+      <c r="A369">
+        <v>4200</v>
+      </c>
+      <c r="B369">
+        <v>1800</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>1737.79000000003</v>
+      </c>
+      <c r="H369">
+        <v>-3228.05999999999</v>
+      </c>
+      <c r="I369">
+        <v>154</v>
+      </c>
+      <c r="J369">
+        <v>154</v>
+      </c>
+      <c r="K369">
+        <v>2.29530450007342</v>
+      </c>
+      <c r="L369">
+        <v>3.29530450007342</v>
+      </c>
+      <c r="M369">
+        <v>12.4</v>
+      </c>
+      <c r="N369">
+        <v>12.400001</v>
+      </c>
+      <c r="O369">
+        <v>13.3</v>
+      </c>
+      <c r="P369">
+        <v>-1</v>
+      </c>
+      <c r="Q369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="1" spans="1:17">
+      <c r="A370">
+        <v>1920</v>
+      </c>
+      <c r="B370">
+        <v>4320</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>1748.07999999998</v>
+      </c>
+      <c r="H370">
+        <v>-3178.99999999998</v>
+      </c>
+      <c r="I370">
+        <v>150</v>
+      </c>
+      <c r="J370">
+        <v>150</v>
+      </c>
+      <c r="K370">
+        <v>1.19432634520191</v>
+      </c>
+      <c r="L370">
+        <v>2.80567365479808</v>
+      </c>
+      <c r="M370">
+        <v>12.8</v>
+      </c>
+      <c r="N370">
+        <v>12.8</v>
+      </c>
+      <c r="O370">
+        <v>12.4</v>
+      </c>
+      <c r="P370">
+        <v>-1</v>
+      </c>
+      <c r="Q370" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="1" spans="1:17">
+      <c r="A371">
+        <v>720</v>
+      </c>
+      <c r="B371">
+        <v>9360</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>-343.319999999991</v>
+      </c>
+      <c r="F371">
+        <v>645.600000000001</v>
+      </c>
+      <c r="G371">
+        <v>2921.97999999999</v>
+      </c>
+      <c r="H371">
+        <v>-5638.93</v>
+      </c>
+      <c r="I371">
+        <v>178.996652047069</v>
+      </c>
+      <c r="J371">
+        <v>177.996652047069</v>
+      </c>
+      <c r="K371">
+        <v>1.39228144208675</v>
+      </c>
+      <c r="L371">
+        <v>0.607718557913244</v>
+      </c>
+      <c r="M371">
+        <v>11.900001</v>
+      </c>
+      <c r="N371">
+        <v>11.900001</v>
+      </c>
+      <c r="O371">
+        <v>11.7</v>
+      </c>
+      <c r="P371">
+        <v>-1</v>
+      </c>
+      <c r="Q371" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="1" spans="1:17">
+      <c r="A372">
+        <v>3960</v>
+      </c>
+      <c r="B372">
+        <v>4200</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>2738.99</v>
+      </c>
+      <c r="H372">
+        <v>-2179.99999999999</v>
+      </c>
+      <c r="I372">
+        <v>148</v>
+      </c>
+      <c r="J372">
+        <v>148</v>
+      </c>
+      <c r="K372">
+        <v>19.4832331160793</v>
+      </c>
+      <c r="L372">
+        <v>5.51676688392069</v>
+      </c>
+      <c r="M372">
+        <v>11.7</v>
+      </c>
+      <c r="N372">
+        <v>11.7</v>
+      </c>
+      <c r="O372">
+        <v>11.900001</v>
+      </c>
+      <c r="P372">
+        <v>-1</v>
+      </c>
+      <c r="Q372" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17">
+      <c r="A373">
+        <v>840</v>
+      </c>
+      <c r="B373">
+        <v>1440</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>-176.870000000022</v>
+      </c>
+      <c r="F373">
+        <v>283.420000000003</v>
+      </c>
+      <c r="G373">
+        <v>796.130000000019</v>
+      </c>
+      <c r="H373">
+        <v>-1250.9</v>
+      </c>
+      <c r="I373">
+        <v>177.033520418616</v>
+      </c>
+      <c r="J373">
+        <v>178.033520418616</v>
+      </c>
+      <c r="K373">
+        <v>2.47454122102408</v>
+      </c>
+      <c r="L373">
+        <v>3.47454122102408</v>
+      </c>
+      <c r="M373">
+        <v>11</v>
+      </c>
+      <c r="N373">
+        <v>11.2</v>
+      </c>
+      <c r="O373">
+        <v>10.8</v>
+      </c>
+      <c r="P373">
+        <v>-1</v>
+      </c>
+      <c r="Q373" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17">
+      <c r="A374">
+        <v>1800</v>
+      </c>
+      <c r="B374">
+        <v>4440</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>-42.6900000000074</v>
+      </c>
+      <c r="F374">
+        <v>110.119999999991</v>
+      </c>
+      <c r="G374">
+        <v>1712.86000000002</v>
+      </c>
+      <c r="H374">
+        <v>-2624.06999999999</v>
+      </c>
+      <c r="I374">
+        <v>171.189717983125</v>
+      </c>
+      <c r="J374">
+        <v>170.189717983125</v>
+      </c>
+      <c r="K374">
+        <v>2.13446762013978</v>
+      </c>
+      <c r="L374">
+        <v>3.13446762013978</v>
+      </c>
+      <c r="M374">
+        <v>10.5</v>
+      </c>
+      <c r="N374">
+        <v>10.5</v>
+      </c>
+      <c r="O374">
+        <v>10.6</v>
+      </c>
+      <c r="P374">
+        <v>-1</v>
+      </c>
+      <c r="Q374" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17">
+      <c r="A375">
+        <v>1200</v>
+      </c>
+      <c r="B375">
+        <v>2640</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>997.999999999947</v>
+      </c>
+      <c r="H375">
+        <v>-1687.34999999999</v>
+      </c>
+      <c r="I375">
+        <v>150</v>
+      </c>
+      <c r="J375">
+        <v>150</v>
+      </c>
+      <c r="K375">
+        <v>0.602616078067399</v>
+      </c>
+      <c r="L375">
+        <v>0.3973839219326</v>
+      </c>
+      <c r="M375">
+        <v>10.6</v>
+      </c>
+      <c r="N375">
+        <v>10.6</v>
+      </c>
+      <c r="O375">
+        <v>10.9</v>
+      </c>
+      <c r="P375">
+        <v>-1</v>
+      </c>
+      <c r="Q375" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17">
+      <c r="A376">
+        <v>1440</v>
+      </c>
+      <c r="B376">
+        <v>10920</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>-6384.90000000004</v>
+      </c>
+      <c r="H376">
+        <v>-5066.11899999999</v>
+      </c>
+      <c r="I376">
+        <v>135</v>
+      </c>
+      <c r="J376">
+        <v>135</v>
+      </c>
+      <c r="K376">
+        <v>6.56964710786275</v>
+      </c>
+      <c r="L376">
+        <v>3.43035289213725</v>
+      </c>
+      <c r="M376">
+        <v>14.4</v>
+      </c>
+      <c r="N376">
+        <v>14.400001</v>
+      </c>
+      <c r="O376">
+        <v>14.5</v>
+      </c>
+      <c r="P376">
+        <v>-1</v>
+      </c>
+      <c r="Q376" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17">
+      <c r="A377">
+        <v>3000</v>
+      </c>
+      <c r="B377">
+        <v>3240</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>-3045.04999999991</v>
+      </c>
+      <c r="H377">
+        <v>-2252.016</v>
+      </c>
+      <c r="I377">
+        <v>131</v>
+      </c>
+      <c r="J377">
+        <v>131</v>
+      </c>
+      <c r="K377">
+        <v>4.51462320096641</v>
+      </c>
+      <c r="L377">
+        <v>0.514623200966411</v>
+      </c>
+      <c r="M377">
+        <v>13.3</v>
+      </c>
+      <c r="N377">
+        <v>13.3</v>
+      </c>
+      <c r="O377">
+        <v>12.900001</v>
+      </c>
+      <c r="P377">
+        <v>-1</v>
+      </c>
+      <c r="Q377" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17">
+      <c r="A378">
+        <v>2040</v>
+      </c>
+      <c r="B378">
+        <v>1920</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>841.199999999986</v>
+      </c>
+      <c r="F378">
+        <v>479.799949999999</v>
+      </c>
+      <c r="G378">
+        <v>-2982.70000000002</v>
+      </c>
+      <c r="H378">
+        <v>-1774.9666</v>
+      </c>
+      <c r="I378">
+        <v>176.69938026962</v>
+      </c>
+      <c r="J378">
+        <v>176.69938026962</v>
+      </c>
+      <c r="K378">
+        <v>2.24366458719853</v>
+      </c>
+      <c r="L378">
+        <v>5.24366458719853</v>
+      </c>
+      <c r="M378">
+        <v>13.5</v>
+      </c>
+      <c r="N378">
+        <v>13.5</v>
+      </c>
+      <c r="O378">
+        <v>13.2</v>
+      </c>
+      <c r="P378">
+        <v>-1</v>
+      </c>
+      <c r="Q378" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17">
+      <c r="A379">
+        <v>3600</v>
+      </c>
+      <c r="B379">
+        <v>2760</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>23.8399999999217</v>
+      </c>
+      <c r="F379">
+        <v>56.0159999999987</v>
+      </c>
+      <c r="G379">
+        <v>-1492.73999999991</v>
+      </c>
+      <c r="H379">
+        <v>-3536.08399999999</v>
+      </c>
+      <c r="I379">
+        <v>177.945750966079</v>
+      </c>
+      <c r="J379">
+        <v>177.945750966079</v>
+      </c>
+      <c r="K379">
+        <v>1.8867939916476</v>
+      </c>
+      <c r="L379">
+        <v>5.8867939916476</v>
+      </c>
+      <c r="M379">
+        <v>12.9</v>
+      </c>
+      <c r="N379">
+        <v>12.900001</v>
+      </c>
+      <c r="O379">
+        <v>12.6</v>
+      </c>
+      <c r="P379">
+        <v>-1</v>
+      </c>
+      <c r="Q379" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17">
+      <c r="A380">
+        <v>240</v>
+      </c>
+      <c r="B380">
+        <v>1320</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>145.550000000014</v>
+      </c>
+      <c r="F380">
+        <v>-10.2499999999849</v>
+      </c>
+      <c r="G380">
+        <v>-1278.75000000003</v>
+      </c>
+      <c r="H380">
+        <v>89.0599999999608</v>
+      </c>
+      <c r="I380">
+        <v>177.028263666478</v>
+      </c>
+      <c r="J380">
+        <v>179.028263666478</v>
+      </c>
+      <c r="K380">
+        <v>1.0160034467982</v>
+      </c>
+      <c r="L380">
+        <v>0.0160034467982086</v>
+      </c>
+      <c r="M380">
+        <v>10.7</v>
+      </c>
+      <c r="N380">
+        <v>10.400001</v>
+      </c>
+      <c r="O380">
+        <v>11.1</v>
+      </c>
+      <c r="P380">
+        <v>-1</v>
+      </c>
+      <c r="Q380" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
+      <c r="A381">
+        <v>1920</v>
+      </c>
+      <c r="B381">
+        <v>600</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1833.10000000005</v>
+      </c>
+      <c r="F381">
+        <v>807.760000000001</v>
+      </c>
+      <c r="G381">
+        <v>-3291.79999999993</v>
+      </c>
+      <c r="H381">
+        <v>-1424.25000000002</v>
+      </c>
+      <c r="I381">
+        <v>171.780806027976</v>
+      </c>
+      <c r="J381">
+        <v>171.780806027976</v>
+      </c>
+      <c r="K381">
+        <v>8.60350481742136</v>
+      </c>
+      <c r="L381">
+        <v>7.60350481742136</v>
+      </c>
+      <c r="M381">
+        <v>10</v>
+      </c>
+      <c r="N381">
+        <v>9.8</v>
+      </c>
+      <c r="O381">
+        <v>10.1</v>
+      </c>
+      <c r="P381">
+        <v>-1</v>
+      </c>
+      <c r="Q381" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17">
+      <c r="A382">
+        <v>1200</v>
+      </c>
+      <c r="B382">
+        <v>840</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>264.500000000111</v>
+      </c>
+      <c r="F382">
+        <v>117.26000000003</v>
+      </c>
+      <c r="G382">
+        <v>-1390.39999999994</v>
+      </c>
+      <c r="H382">
+        <v>-619.640000000032</v>
+      </c>
+      <c r="I382">
+        <v>172.909004296613</v>
+      </c>
+      <c r="J382">
+        <v>171.909004296613</v>
+      </c>
+      <c r="K382">
+        <v>7.97957382882074</v>
+      </c>
+      <c r="L382">
+        <v>5.97957382882074</v>
+      </c>
+      <c r="M382">
+        <v>9.9</v>
+      </c>
+      <c r="N382">
+        <v>10</v>
+      </c>
+      <c r="O382">
+        <v>9.6</v>
+      </c>
+      <c r="P382">
+        <v>-1</v>
+      </c>
+      <c r="Q382" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17">
+      <c r="A383">
+        <v>240</v>
+      </c>
+      <c r="B383">
+        <v>1440</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>46.9000000001074</v>
+      </c>
+      <c r="F383">
+        <v>-11.2000000000023</v>
+      </c>
+      <c r="G383">
+        <v>-992.300000000057</v>
+      </c>
+      <c r="H383">
+        <v>236.799999999988</v>
+      </c>
+      <c r="I383">
+        <v>175.431028870654</v>
+      </c>
+      <c r="J383">
+        <v>175.431028870654</v>
+      </c>
+      <c r="K383">
+        <v>4.57810285328605</v>
+      </c>
+      <c r="L383">
+        <v>4.57810285328605</v>
+      </c>
+      <c r="M383">
+        <v>9.3</v>
+      </c>
+      <c r="N383">
+        <v>9.3</v>
+      </c>
+      <c r="O383">
+        <v>9.2</v>
+      </c>
+      <c r="P383">
+        <v>-1</v>
+      </c>
+      <c r="Q383" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17">
+      <c r="A384">
+        <v>240</v>
+      </c>
+      <c r="B384">
+        <v>1080</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>33.89999999996</v>
+      </c>
+      <c r="F384">
+        <v>-8.97000000001924</v>
+      </c>
+      <c r="G384">
+        <v>-617.799999999988</v>
+      </c>
+      <c r="H384">
+        <v>157.120000000006</v>
+      </c>
+      <c r="I384">
+        <v>176.82090523086</v>
+      </c>
+      <c r="J384">
+        <v>176.82090523086</v>
+      </c>
+      <c r="K384">
+        <v>3.73094030066363</v>
+      </c>
+      <c r="L384">
+        <v>1.73094030066363</v>
+      </c>
+      <c r="M384">
+        <v>8.6</v>
+      </c>
+      <c r="N384">
+        <v>9</v>
+      </c>
+      <c r="O384">
+        <v>9</v>
+      </c>
+      <c r="P384">
+        <v>-1</v>
+      </c>
+      <c r="Q384" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17">
+      <c r="A385">
+        <v>360</v>
+      </c>
+      <c r="B385">
+        <v>2040</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>305.600000000083</v>
+      </c>
+      <c r="F385">
+        <v>-34.5200000000289</v>
+      </c>
+      <c r="G385">
+        <v>-1346.69999999999</v>
+      </c>
+      <c r="H385">
+        <v>155.219999999971</v>
+      </c>
+      <c r="I385">
+        <v>176.444705425696</v>
+      </c>
+      <c r="J385">
+        <v>175.444705425696</v>
+      </c>
+      <c r="K385">
+        <v>4.42512852698882</v>
+      </c>
+      <c r="L385">
+        <v>2.42512852698882</v>
+      </c>
+      <c r="M385">
+        <v>9.8</v>
+      </c>
+      <c r="N385">
+        <v>10.400001</v>
+      </c>
+      <c r="O385">
+        <v>10.400001</v>
+      </c>
+      <c r="P385">
+        <v>-1</v>
+      </c>
+      <c r="Q385" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17">
+      <c r="A386">
+        <v>360</v>
+      </c>
+      <c r="B386">
+        <v>960</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>130.299999999863</v>
+      </c>
+      <c r="F386">
+        <v>-15.1800000000434</v>
+      </c>
+      <c r="G386">
+        <v>-647.899999999879</v>
+      </c>
+      <c r="H386">
+        <v>78.3400000000256</v>
+      </c>
+      <c r="I386">
+        <v>176.645025491664</v>
+      </c>
+      <c r="J386">
+        <v>176.645025491664</v>
+      </c>
+      <c r="K386">
+        <v>3.10562298015815</v>
+      </c>
+      <c r="L386">
+        <v>2.10562298015815</v>
+      </c>
+      <c r="M386">
+        <v>10.6</v>
+      </c>
+      <c r="N386">
+        <v>10.400001</v>
+      </c>
+      <c r="O386">
+        <v>10.400001</v>
+      </c>
+      <c r="P386">
+        <v>-1</v>
+      </c>
+      <c r="Q386" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17">
+      <c r="A387">
+        <v>1920</v>
+      </c>
+      <c r="B387">
+        <v>360</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>-1702.89999999994</v>
+      </c>
+      <c r="H387">
+        <v>208.510000000003</v>
+      </c>
+      <c r="I387">
+        <v>82</v>
+      </c>
+      <c r="J387">
+        <v>82</v>
+      </c>
+      <c r="K387">
+        <v>1.01921996231749</v>
+      </c>
+      <c r="L387">
+        <v>2.01921996231749</v>
+      </c>
+      <c r="M387">
+        <v>11.1</v>
+      </c>
+      <c r="N387">
+        <v>11.1</v>
+      </c>
+      <c r="O387">
+        <v>11</v>
+      </c>
+      <c r="P387">
+        <v>-1</v>
+      </c>
+      <c r="Q387" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17">
+      <c r="A388">
+        <v>2040</v>
+      </c>
+      <c r="B388">
+        <v>1560</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>-2671.70000000021</v>
+      </c>
+      <c r="H388">
+        <v>327.020000000004</v>
+      </c>
+      <c r="I388">
+        <v>78</v>
+      </c>
+      <c r="J388">
+        <v>78</v>
+      </c>
+      <c r="K388">
+        <v>5.02162465241315</v>
+      </c>
+      <c r="L388">
+        <v>6.02162465241315</v>
+      </c>
+      <c r="M388">
+        <v>10.8</v>
+      </c>
+      <c r="N388">
+        <v>10.8</v>
+      </c>
+      <c r="O388">
+        <v>10.8</v>
+      </c>
+      <c r="P388">
+        <v>-1</v>
+      </c>
+      <c r="Q388" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17">
+      <c r="A389">
+        <v>600</v>
+      </c>
+      <c r="B389">
+        <v>960</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>355.800000000101</v>
+      </c>
+      <c r="F389">
+        <v>-43.9999999999685</v>
+      </c>
+      <c r="G389">
+        <v>-1483.00000000006</v>
+      </c>
+      <c r="H389">
+        <v>177.459999999953</v>
+      </c>
+      <c r="I389">
+        <v>175.049689806994</v>
+      </c>
+      <c r="J389">
+        <v>176.049689806994</v>
+      </c>
+      <c r="K389">
+        <v>4.17627064780651</v>
+      </c>
+      <c r="L389">
+        <v>4.17627064780651</v>
+      </c>
+      <c r="M389">
+        <v>10.5</v>
+      </c>
+      <c r="N389">
+        <v>10.6</v>
+      </c>
+      <c r="O389">
+        <v>10.2</v>
+      </c>
+      <c r="P389">
+        <v>-1</v>
+      </c>
+      <c r="Q389" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17">
+      <c r="A390">
+        <v>1920</v>
+      </c>
+      <c r="B390">
+        <v>1080</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>2736.70000000009</v>
+      </c>
+      <c r="F390">
+        <v>-306.779999999946</v>
+      </c>
+      <c r="G390">
+        <v>-4910.19999999991</v>
+      </c>
+      <c r="H390">
+        <v>591.769999999982</v>
+      </c>
+      <c r="I390">
+        <v>172.396069696173</v>
+      </c>
+      <c r="J390">
+        <v>176.396069696173</v>
+      </c>
+      <c r="K390">
+        <v>3.12794153982986</v>
+      </c>
+      <c r="L390">
+        <v>6.12794153982986</v>
+      </c>
+      <c r="M390">
+        <v>10.3</v>
+      </c>
+      <c r="N390">
+        <v>10.3</v>
+      </c>
+      <c r="O390">
+        <v>10.3</v>
+      </c>
+      <c r="P390">
+        <v>-1</v>
+      </c>
+      <c r="Q390" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17">
+      <c r="A391">
+        <v>1200</v>
+      </c>
+      <c r="B391">
+        <v>720</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>803.60000000013</v>
+      </c>
+      <c r="F391">
+        <v>-64.2500000000012</v>
+      </c>
+      <c r="G391">
+        <v>-2309.80000000016</v>
+      </c>
+      <c r="H391">
+        <v>190.5</v>
+      </c>
+      <c r="I391">
+        <v>177.571229121982</v>
+      </c>
+      <c r="J391">
+        <v>176.571229121982</v>
+      </c>
+      <c r="K391">
+        <v>3.28522008137025</v>
+      </c>
+      <c r="L391">
+        <v>3.28522008137025</v>
+      </c>
+      <c r="M391">
+        <v>11.6</v>
+      </c>
+      <c r="N391">
+        <v>11.7</v>
+      </c>
+      <c r="O391">
+        <v>11.6</v>
+      </c>
+      <c r="P391">
+        <v>-1</v>
+      </c>
+      <c r="Q391" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17">
+      <c r="A392">
+        <v>1200</v>
+      </c>
+      <c r="B392">
+        <v>1440</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>623.500000000092</v>
+      </c>
+      <c r="F392">
+        <v>-52.6000000000692</v>
+      </c>
+      <c r="G392">
+        <v>-2790.20000000002</v>
+      </c>
+      <c r="H392">
+        <v>236.370000000007</v>
+      </c>
+      <c r="I392">
+        <v>176.822195210316</v>
+      </c>
+      <c r="J392">
+        <v>176.822195210316</v>
+      </c>
+      <c r="K392">
+        <v>3.15778619101706</v>
+      </c>
+      <c r="L392">
+        <v>2.15778619101706</v>
+      </c>
+      <c r="M392">
+        <v>11.6</v>
+      </c>
+      <c r="N392">
+        <v>11.8</v>
+      </c>
+      <c r="O392">
+        <v>11.9</v>
+      </c>
+      <c r="P392">
+        <v>-1</v>
+      </c>
+      <c r="Q392" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17">
+      <c r="A393">
+        <v>1680</v>
+      </c>
+      <c r="B393">
+        <v>960</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>133.800000000121</v>
+      </c>
+      <c r="F393">
+        <v>-9.53000000002646</v>
+      </c>
+      <c r="G393">
+        <v>-2382.80000000003</v>
+      </c>
+      <c r="H393">
+        <v>178.489999999982</v>
+      </c>
+      <c r="I393">
+        <v>179.074052511117</v>
+      </c>
+      <c r="J393">
+        <v>179.074052511117</v>
+      </c>
+      <c r="K393">
+        <v>0.716107142410351</v>
+      </c>
+      <c r="L393">
+        <v>0.283892857589648</v>
+      </c>
+      <c r="M393">
+        <v>11.9</v>
+      </c>
+      <c r="N393">
+        <v>12</v>
+      </c>
+      <c r="O393">
+        <v>11.9</v>
+      </c>
+      <c r="P393">
+        <v>-1</v>
+      </c>
+      <c r="Q393" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17">
+      <c r="A394">
+        <v>3240</v>
+      </c>
+      <c r="B394">
+        <v>1320</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1789.40000000011</v>
+      </c>
+      <c r="F394">
+        <v>-151.869999999973</v>
+      </c>
+      <c r="G394">
+        <v>-5496.59999999988</v>
+      </c>
+      <c r="H394">
+        <v>444.600000000008</v>
+      </c>
+      <c r="I394">
+        <v>179.851182961044</v>
+      </c>
+      <c r="J394">
+        <v>178.851182961044</v>
+      </c>
+      <c r="K394">
+        <v>1.37562022806139</v>
+      </c>
+      <c r="L394">
+        <v>0.624379771938606</v>
+      </c>
+      <c r="M394">
+        <v>11.8</v>
+      </c>
+      <c r="N394">
+        <v>11.8</v>
+      </c>
+      <c r="O394">
+        <v>11.6</v>
+      </c>
+      <c r="P394">
+        <v>-1</v>
+      </c>
+      <c r="Q394" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17">
+      <c r="A395">
+        <v>2040</v>
+      </c>
+      <c r="B395">
+        <v>840</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>-2163.10000000021</v>
+      </c>
+      <c r="H395">
+        <v>-35.169999999951</v>
+      </c>
+      <c r="I395">
+        <v>95</v>
+      </c>
+      <c r="J395">
+        <v>95</v>
+      </c>
+      <c r="K395">
+        <v>4.06850583634945</v>
+      </c>
+      <c r="L395">
+        <v>5.06850583634945</v>
+      </c>
+      <c r="M395">
+        <v>10.2</v>
+      </c>
+      <c r="N395">
+        <v>10.2</v>
+      </c>
+      <c r="O395">
+        <v>10.3</v>
+      </c>
+      <c r="P395">
+        <v>-1</v>
+      </c>
+      <c r="Q395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17">
+      <c r="A396">
+        <v>1200</v>
+      </c>
+      <c r="B396">
+        <v>1920</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>656.50000000005</v>
+      </c>
+      <c r="F396">
+        <v>1.67999999995061</v>
+      </c>
+      <c r="G396">
+        <v>-2931.09999999984</v>
+      </c>
+      <c r="H396">
+        <v>-21.9699999999534</v>
+      </c>
+      <c r="I396">
+        <v>174.146621019746</v>
+      </c>
+      <c r="J396">
+        <v>175.146621019746</v>
+      </c>
+      <c r="K396">
+        <v>4.57054870087768</v>
+      </c>
+      <c r="L396">
+        <v>6.57054870087768</v>
+      </c>
+      <c r="M396">
+        <v>10.3</v>
+      </c>
+      <c r="N396">
+        <v>10.7</v>
+      </c>
+      <c r="O396">
+        <v>10.2</v>
+      </c>
+      <c r="P396">
+        <v>-1</v>
+      </c>
+      <c r="Q396" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17">
+      <c r="A397">
+        <v>1440</v>
+      </c>
+      <c r="B397">
+        <v>2280</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>442.800000000147</v>
+      </c>
+      <c r="F397">
+        <v>40.8600000000092</v>
+      </c>
+      <c r="G397">
+        <v>-2552.70000000024</v>
+      </c>
+      <c r="H397">
+        <v>-100.930000000047</v>
+      </c>
+      <c r="I397">
+        <v>171.272119476236</v>
+      </c>
+      <c r="J397">
+        <v>172.272119476236</v>
+      </c>
+      <c r="K397">
+        <v>10.7357886124474</v>
+      </c>
+      <c r="L397">
+        <v>16.2642113875525</v>
+      </c>
+      <c r="M397">
+        <v>8.9</v>
+      </c>
+      <c r="N397">
+        <v>9</v>
+      </c>
+      <c r="O397">
+        <v>10.3</v>
+      </c>
+      <c r="P397">
+        <v>-1</v>
+      </c>
+      <c r="Q397" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17">
+      <c r="A398">
+        <v>1800</v>
+      </c>
+      <c r="B398">
+        <v>1320</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>860.900000000128</v>
+      </c>
+      <c r="F398">
+        <v>336.379999999962</v>
+      </c>
+      <c r="G398">
+        <v>-949.799999999925</v>
+      </c>
+      <c r="H398">
+        <v>-722.809999999967</v>
+      </c>
+      <c r="I398">
+        <v>163.657889934099</v>
+      </c>
+      <c r="J398">
+        <v>162.657889934099</v>
+      </c>
+      <c r="K398">
+        <v>33.2716008573178</v>
+      </c>
+      <c r="L398">
+        <v>18.2716008573178</v>
+      </c>
+      <c r="M398">
+        <v>2.5</v>
+      </c>
+      <c r="N398">
+        <v>7.8</v>
+      </c>
+      <c r="O398">
+        <v>3</v>
+      </c>
+      <c r="P398">
+        <v>-1</v>
+      </c>
+      <c r="Q398" s="1">
         <v>1</v>
       </c>
     </row>
